--- a/biology/Zoologie/Caille_peinte/Caille_peinte.xlsx
+++ b/biology/Zoologie/Caille_peinte/Caille_peinte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Excalfactoria chinensis
 La Caille peinte (Excalfactoria chinensis), également connue sous les noms de Caille peinte de Chine, Caille de Chine ou Caille naine, est une espèce d'oiseaux de la famille des Phasianidae, de l'ordre des Galliformes.
@@ -513,7 +525,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Mâle
@@ -549,7 +563,9 @@
           <t>Captivité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">A l'état domestique, la Caille de Chine est présente sous sa forme sauvage mais aussi dans les mutations blanche, argentée, panachée, brune (Catherine) et noire.
 </t>
@@ -582,18 +598,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Locomotion
-Elle se déplace sur ses deux pattes. Elle a une capacité de vol très limitée.
-Alimentation
-Lorsque le mâle trouve un petit insecte, il le tient en évidence dans son bec, se dresse et lance un appel répété à la femelle qui accourt, le reçoit et le mange. À ce moment, celle-ci produit une fiente pâteuse qui est consommée par le mâle. Tout en contribuant à l'alimentation de la femelle en période de ponte, il semble que ce comportement d'échange resserre les liens du couple. Il est aussi possible que la coprophagie d'une fiente partiellement digérée restitue au mâle une partie des éléments nutritifs indispensables (vitamines en particulier) dont il se prive pour alimenter la femelle.[réf. nécessaire]
-En captivité, la Caille peinte de Chine peut être nourrie avec des graines pour oiseaux exotiques. Elle apprécie aussi les vers de farine et le pissenlit.
-Comportement social
-La caille peinte se rencontre par couples ou en famille de cinq ou six individus. Comme la plupart des cailles, elle répugne à s’envoler, préférant courir entre les tiges herbacées en profitant de sa petite taille. Si elle est forcée, par un chien par exemple, elle décolle brutalement, vole rapidement en ligne droite sur quelques mètres et se repose immédiatement dans la végétation où elle détale à toute vitesse. La nourriture consiste en petites graines de graminées et en menus insectes (Hennache &amp; Ottaviani 2011).
-Voix
-Les deux sexes émettent un doux sifflement assez plaintif, tii-tii-tiou, la dernière syllabe plus basse que les deux autres. Cette caille chante plutôt à la tombée de la nuit mais elle peut chanter toute la journée et même la nuit en début de saison de reproduction (Wells 1999).
-D'un naturel discret, le mâle est sujet à des chants plus fréquents et mélodieux que la femelle, notamment durant les parades, les offrandes d'insectes ou pour retrouver un compagnon. On dit qu'il pituite, courcaille.
-Reproduction
-La caille peinte est monogame et les liens du couple sont très étroits. Le nid, parfois dômé, est une petite cavité aménagée au sol, délimitée avec des herbes et des racines. Il est construit par la femelle, le mâle se contentant de collecter des matériaux. Les jeunes sont matures vers l’âge de deux mois et sont capables de se reproduire l’année de leur naissance (Wells 1999). La durée d'incubation est de 16 à 18 jours. La femelle pond 4 à 6 œufs par couvée.
+          <t>Locomotion</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se déplace sur ses deux pattes. Elle a une capacité de vol très limitée.
 </t>
         </is>
       </c>
@@ -619,16 +630,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Comportement</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Répartition
-Cette espèce a une très large répartition géographique qui s’étend en Inde, au Népal, au Sri-Lanka, aux îles Nicobar, au Myanmar, en Thaïlande, dans le sud-est de la Chine, à Taiwan, à Hainan, en Indochine, en Malaisie, aux Philippines, dans toute l’Indonésie, en Nouvelle-Guinée et en Australie. Elle a été introduite aux Mariannes (Guam), à La Réunion et à l’île Maurice.
-Habitat
-La caille peinte est typiquement une espèce de basse altitude mais elle été signalée à 1300m dans les îles de la Sonde, à 2000m dans le sud de l’Inde et à 2400m d’altitude au Sri Lanka. Elle se rencontre dans les champs de riz, les chaumes, les friches, les prairies humides, les rives broussailleuses des fleuves et rivières, les coteaux couverts de fougères (Hennache &amp; Ottaviani 2011).
-Migration</t>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque le mâle trouve un petit insecte, il le tient en évidence dans son bec, se dresse et lance un appel répété à la femelle qui accourt, le reçoit et le mange. À ce moment, celle-ci produit une fiente pâteuse qui est consommée par le mâle. Tout en contribuant à l'alimentation de la femelle en période de ponte, il semble que ce comportement d'échange resserre les liens du couple. Il est aussi possible que la coprophagie d'une fiente partiellement digérée restitue au mâle une partie des éléments nutritifs indispensables (vitamines en particulier) dont il se prive pour alimenter la femelle.[réf. nécessaire]
+En captivité, la Caille peinte de Chine peut être nourrie avec des graines pour oiseaux exotiques. Elle apprécie aussi les vers de farine et le pissenlit.
+</t>
         </is>
       </c>
     </row>
@@ -653,17 +668,274 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Comportement social</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La caille peinte se rencontre par couples ou en famille de cinq ou six individus. Comme la plupart des cailles, elle répugne à s’envoler, préférant courir entre les tiges herbacées en profitant de sa petite taille. Si elle est forcée, par un chien par exemple, elle décolle brutalement, vole rapidement en ligne droite sur quelques mètres et se repose immédiatement dans la végétation où elle détale à toute vitesse. La nourriture consiste en petites graines de graminées et en menus insectes (Hennache &amp; Ottaviani 2011).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caille_peinte</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caille_peinte</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Voix</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux sexes émettent un doux sifflement assez plaintif, tii-tii-tiou, la dernière syllabe plus basse que les deux autres. Cette caille chante plutôt à la tombée de la nuit mais elle peut chanter toute la journée et même la nuit en début de saison de reproduction (Wells 1999).
+D'un naturel discret, le mâle est sujet à des chants plus fréquents et mélodieux que la femelle, notamment durant les parades, les offrandes d'insectes ou pour retrouver un compagnon. On dit qu'il pituite, courcaille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Caille_peinte</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caille_peinte</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La caille peinte est monogame et les liens du couple sont très étroits. Le nid, parfois dômé, est une petite cavité aménagée au sol, délimitée avec des herbes et des racines. Il est construit par la femelle, le mâle se contentant de collecter des matériaux. Les jeunes sont matures vers l’âge de deux mois et sont capables de se reproduire l’année de leur naissance (Wells 1999). La durée d'incubation est de 16 à 18 jours. La femelle pond 4 à 6 œufs par couvée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Caille_peinte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caille_peinte</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a une très large répartition géographique qui s’étend en Inde, au Népal, au Sri-Lanka, aux îles Nicobar, au Myanmar, en Thaïlande, dans le sud-est de la Chine, à Taiwan, à Hainan, en Indochine, en Malaisie, aux Philippines, dans toute l’Indonésie, en Nouvelle-Guinée et en Australie. Elle a été introduite aux Mariannes (Guam), à La Réunion et à l’île Maurice.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Caille_peinte</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caille_peinte</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La caille peinte est typiquement une espèce de basse altitude mais elle été signalée à 1300m dans les îles de la Sonde, à 2000m dans le sud de l’Inde et à 2400m d’altitude au Sri Lanka. Elle se rencontre dans les champs de riz, les chaumes, les friches, les prairies humides, les rives broussailleuses des fleuves et rivières, les coteaux couverts de fougères (Hennache &amp; Ottaviani 2011).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Caille_peinte</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caille_peinte</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Excalfactoria chinensis a été décrite  par le naturaliste suédois Carl von Linné en 1766, sous le nom initial de Tetrao chinensis[1].
-Synonyme
-Tetrao chinensis Linné, 1766 (protonyme)
-Coturnix chinensis (Linné, 1766)
-Taxinomie
-Selon la classification de référence du Congrès ornithologique international  (version 3.3, 2013)[2], cet oiseau est représenté par 9 sous-espèces :
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Excalfactoria chinensis a été décrite  par le naturaliste suédois Carl von Linné en 1766, sous le nom initial de Tetrao chinensis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Caille_peinte</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caille_peinte</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tetrao chinensis Linné, 1766 (protonyme)
+Coturnix chinensis (Linné, 1766)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Caille_peinte</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caille_peinte</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 3.3, 2013), cet oiseau est représenté par 9 sous-espèces :
 Excalfactoria chinensis chinensis (Linnaeus, 1766) ;
 Excalfactoria chinensis trinkutensis Richmond, 1902 ;
 Excalfactoria chinensis palmeri Riley, 1919 ;
@@ -672,9 +944,43 @@
 Excalfactoria chinensis papuensis Mayr &amp; Rand, 1936 ;
 Excalfactoria chinensis lepida Hartlaub, 1879 ;
 Excalfactoria chinensis australis Gould, 1865 ;
-Excalfactoria chinensis colletti Mathews, 1912.
-Statut et conservation
-Bien que largement répartie, la caille peinte est considérée comme peu commune. Elle est très rare en Thaïlande, où pourtant David-Beaulieu la disait commune au Tranninh. Elle est devenue assez rare au Sri lanka, où elle ne se rencontre plus que dans les prairies à l’est de l’île, et en Inde. Sarker n’a plus confirmé sa présence au Bangladesh en 2001. Elle demeure très localisée en Australie. En de nombreuses régions, la diminution de la surface d’habitat favorable, en raison du drainage des prairies humides et des changements de méthodes culturales, est une menace pour la survie de cette espèce (Hennache &amp; Ottaviani 2011)
+Excalfactoria chinensis colletti Mathews, 1912.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Caille_peinte</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caille_peinte</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Statut et conservation</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que largement répartie, la caille peinte est considérée comme peu commune. Elle est très rare en Thaïlande, où pourtant David-Beaulieu la disait commune au Tranninh. Elle est devenue assez rare au Sri lanka, où elle ne se rencontre plus que dans les prairies à l’est de l’île, et en Inde. Sarker n’a plus confirmé sa présence au Bangladesh en 2001. Elle demeure très localisée en Australie. En de nombreuses régions, la diminution de la surface d’habitat favorable, en raison du drainage des prairies humides et des changements de méthodes culturales, est une menace pour la survie de cette espèce (Hennache &amp; Ottaviani 2011)
 </t>
         </is>
       </c>
